--- a/biology/Botanique/Aiouea/Aiouea.xlsx
+++ b/biology/Botanique/Aiouea/Aiouea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aiouea est un genre de plantes à fleurs néotropicale, appartenant à la famille des Lauraceae, comptant 83 à 125 espèces, et dont l'espèce type est Aiouea guianensis Aubl.. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aiouea regroupe des arbres ou arbustes, à feuilles simples, alternes, solidement charnues, parfois avec une marge cartilagineuse, généralement glabres, à nervures pennées ou tripliquées, rarement accompagnées de touffes de poils axillaires à la base des nervures latérales. 
 Les inflorescences sont axillaires ou subterminales, généralement minces et glabres, paniculées. 
@@ -520,7 +534,7 @@
 Les staminodes sont généralement présents, 3, avec un apex cordé ou sagittal.
 L'ovaire est généralement immergé dans le tube floral, et contient 1 ovule. 
 Le fruit est une baie ellipsoïde ou subglobuleuse à une graine, reposant sur une cupule peu profonde.
-Les tépales sont caducs au stade de la fructification[1].
+Les tépales sont caducs au stade de la fructification.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aiouea est un genre néotropical représenté sud du Mexique au Paraguay en passant par l'Amérique centrale, la Colombie, le Venezuela, Trinidad et Tobago, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et le Brésil[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aiouea est un genre néotropical représenté sud du Mexique au Paraguay en passant par l'Amérique centrale, la Colombie, le Venezuela, Trinidad et Tobago, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et le Brésil.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (31 mai 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (31 mai 2024) :
 Aiouea acarodomatifera Kosterm.
 Aiouea alainii (C.K.Allen) R.Rohde
 Aiouea albopunctata Brotto
@@ -666,7 +684,7 @@
 Aiouea velveti (Lorea-Hern.) R.Rohde
 Aiouea vexatrix VanDerWerff
 Aiouea zapatae (Lorea-Hern.) R.Rohde
-Selon Tropicos                                           (31 mai 2024)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 mai 2024) (Attention liste brute contenant possiblement des synonymes) :
 Aiouea acarodomatifera Kosterm., 1938
 Aiouea alainii (C.K. Allen) R. Rohde, 2017
 Aiouea albopunctata Brotto, 2022
@@ -820,9 +838,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « AIOUEA. (Tabula 120.) 
 CAL. Perianthium monophyllum, ſubrotundum concavum, tridentatum.
 COR. Pet à la tria, minima, ſublutea, calici intrà diviſuras inſerta.
